--- a/학습자료/단답형/객관식_영어_유의어_Day08.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day08.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>regulate
-1. 정당화하다, 합법화하다, 합법의
-2. 즉흥적인
-3. 규제하다, 통제하다</t>
+1. 규제하다, 통제하다
+2. 지지하다
+3. 설명하다, 해명하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 규제하다, 통제하다</t>
+          <t>1, 규제하다, 통제하다</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>control
-1. 규제하다, 통제하다
-2. 설명하다, 해명하다
-3. 사치스러운</t>
+1. 연습하다, 연습시키다
+2. 규제하다, 통제하다
+3. 무시하다, 일축하다</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 규제하다, 통제하다</t>
+          <t>2, 규제하다, 통제하다</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>restict
-1. 설명하다, 해명하다
-2. 정당화하다, 합법화하다, 합법의
+1. 연습하다, 연습시키다
+2. 사치스러운
 3. 규제하다, 통제하다</t>
         </is>
       </c>
@@ -495,8 +495,8 @@
         <is>
           <t>influence
 1. 영향을 미치다
-2. 즉흥적인
-3. 정당화하다, 합법화하다, 합법의</t>
+2. 정당화하다, 합법화하다, 합법의
+3. 지지하다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,9 +509,9 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>affect
-1. 사치스러운
+1. 무시하다, 일축하다
 2. 영향을 미치다
-3. 비공식의, 평상복의</t>
+3. 즉흥적인</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -525,8 +525,8 @@
         <is>
           <t>impact
 1. 영향을 미치다
-2. 규제하다, 통제하다
-3. 무시하다, 일축하다</t>
+2. 연습하다, 연습시키다
+3. 사치스러운</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>impromptu
-1. 즉흥적인
-2. 비공식의, 평상복의
-3. 규제하다, 통제하다</t>
+1. 규제하다, 통제하다
+2. 즉흥적인
+3. 무시하다, 일축하다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 즉흥적인</t>
+          <t>2, 즉흥적인</t>
         </is>
       </c>
     </row>
@@ -554,9 +554,9 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>spontaneous
-1. 지지하다
+1. 비공식의, 평상복의
 2. 즉흥적인
-3. 연습하다, 연습시키다</t>
+3. 사치스러운</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>improvised
-1. 무시하다, 일축하다
-2. 정당화하다, 합법화하다, 합법의
-3. 즉흥적인</t>
+1. 규제하다, 통제하다
+2. 즉흥적인
+3. 무시하다, 일축하다</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, 즉흥적인</t>
+          <t>2, 즉흥적인</t>
         </is>
       </c>
     </row>
@@ -584,8 +584,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>extempore
-1. 영향을 미치다
-2. 비공식의, 평상복의
+1. 설명하다, 해명하다
+2. 무시하다, 일축하다
 3. 즉흥적인</t>
         </is>
       </c>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>informal
-1. 연습하다, 연습시키다
-2. 비공식의, 평상복의
-3. 영향을 미치다</t>
+1. 비공식의, 평상복의
+2. 연습하다, 연습시키다
+3. 즉흥적인</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 비공식의, 평상복의</t>
+          <t>1, 비공식의, 평상복의</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>unofficial
-1. 규제하다, 통제하다
-2. 비공식의, 평상복의
-3. 무시하다, 일축하다</t>
+1. 비공식의, 평상복의
+2. 지지하다
+3. 영향을 미치다</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2, 비공식의, 평상복의</t>
+          <t>1, 비공식의, 평상복의</t>
         </is>
       </c>
     </row>
@@ -629,9 +629,9 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>causual
-1. 규제하다, 통제하다
+1. 설명하다, 해명하다
 2. 비공식의, 평상복의
-3. 무시하다, 일축하다</t>
+3. 사치스러운</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -646,7 +646,7 @@
           <t>luxurious
 1. 사치스러운
 2. 지지하다
-3. 정당화하다, 합법화하다, 합법의</t>
+3. 비공식의, 평상복의</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>opulent
-1. 영향을 미치다
-2. 사치스러운
-3. 지지하다</t>
+1. 사치스러운
+2. 정당화하다, 합법화하다, 합법의
+3. 무시하다, 일축하다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 사치스러운</t>
+          <t>1, 사치스러운</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>extravagant
-1. 즉흥적인
-2. 사치스러운
-3. 연습하다, 연습시키다</t>
+1. 정당화하다, 합법화하다, 합법의
+2. 설명하다, 해명하다
+3. 사치스러운</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 사치스러운</t>
+          <t>3, 사치스러운</t>
         </is>
       </c>
     </row>
@@ -690,13 +690,13 @@
         <is>
           <t>lavish
 1. 정당화하다, 합법화하다, 합법의
-2. 연습하다, 연습시키다
-3. 사치스러운</t>
+2. 사치스러운
+3. 즉흥적인</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 사치스러운</t>
+          <t>2, 사치스러운</t>
         </is>
       </c>
     </row>
@@ -704,29 +704,29 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>sumptuous
-1. 사치스러운
+1. 설명하다, 해명하다
+2. 무시하다, 일축하다
+3. 사치스러운</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3, 사치스러운</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>rehearse
+1. 규제하다, 통제하다
 2. 영향을 미치다
 3. 연습하다, 연습시키다</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1, 사치스러운</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>rehearse
-1. 연습하다, 연습시키다
-2. 영향을 미치다
-3. 사치스러운</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1, 연습하다, 연습시키다</t>
+          <t>3, 연습하다, 연습시키다</t>
         </is>
       </c>
     </row>
@@ -734,8 +734,8 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>practice
-1. 즉흥적인
-2. 사치스러운
+1. 지지하다
+2. 무시하다, 일축하다
 3. 연습하다, 연습시키다</t>
         </is>
       </c>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>exercise
-1. 연습하다, 연습시키다
-2. 규제하다, 통제하다
-3. 지지하다</t>
+1. 지지하다
+2. 연습하다, 연습시키다
+3. 설명하다, 해명하다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 연습하다, 연습시키다</t>
+          <t>2, 연습하다, 연습시키다</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
           <t>drill
 1. 연습하다, 연습시키다
 2. 무시하다, 일축하다
-3. 설명하다, 해명하다</t>
+3. 사치스러운</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -779,9 +779,9 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>maneuver
-1. 즉흥적인
+1. 정당화하다, 합법화하다, 합법의
 2. 연습하다, 연습시키다
-3. 비공식의, 평상복의</t>
+3. 설명하다, 해명하다</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -795,8 +795,8 @@
         <is>
           <t>brush aside
 1. 무시하다, 일축하다
-2. 규제하다, 통제하다
-3. 비공식의, 평상복의</t>
+2. 설명하다, 해명하다
+3. 지지하다</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -809,9 +809,9 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>dismiss
-1. 연습하다, 연습시키다
+1. 영향을 미치다
 2. 무시하다, 일축하다
-3. 비공식의, 평상복의</t>
+3. 정당화하다, 합법화하다, 합법의</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -825,8 +825,7 @@
         <is>
           <t>ignore
 1. 무시하다, 일축하다
-2. 비공식의, 평상복의
-3. 즉흥적인</t>
+2. 영향</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -840,13 +839,13 @@
         <is>
           <t>slight
 1. 즉흥적인
-2. 영향을 미치다
-3. 무시하다, 일축하다</t>
+2. 무시하다, 일축하다
+3. 사치스러운</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3, 무시하다, 일축하다</t>
+          <t>2, 무시하다, 일축하다</t>
         </is>
       </c>
     </row>
@@ -854,284 +853,284 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>disregard
+1. 비공식의, 평상복의
+2. 사치스러운
+3. 무시하다, 일축하다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3, 무시하다, 일축하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>advocate
+1. 지지하다
+2. 영향을 미치다
+3. 규제하다, 통제하다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1, 지지하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>back
+1. 사치스러운
+2. 정당화하다, 합법화하다, 합법의
+3. 지지하다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 지지하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>support
+1. 규제하다, 통제하다
+2. 지지하다
+3. 설명하다, 해명하다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 지지하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>endorse
+1. 즉흥적인
+2. 지지하다
+3. 규제하다, 통제하다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2, 지지하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>stand up for
+1. 비공식의, 평상복의
+2. 지지하다
+3. 즉흥적인</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, 지지하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>prop
 1. 무시하다, 일축하다
 2. 즉흥적인
+3. 지지하다</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 지지하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>elucidate
+1. 설명하다, 해명하다
+2. 즉흥적인
+3. 영향을 미치다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1, 설명하다, 해명하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>explain
+1. 즉흥적인
+2. 설명하다, 해명하다
+3. 영향을 미치다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2, 설명하다, 해명하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>interpret
+1. 규제하다, 통제하다
+2. 설명하다, 해명하다
 3. 비공식의, 평상복의</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1, 무시하다, 일축하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>advocate
-1. 영향을 미치다
-2. 비공식의, 평상복의
-3. 지지하다</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3, 지지하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>back
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2, 설명하다, 해명하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>demonstrate
 1. 무시하다, 일축하다
 2. 정당화하다, 합법화하다, 합법의
+3. 설명하다, 해명하다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 설명하다, 해명하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>expound
+1. 비공식의, 평상복의
+2. 즉흥적인
+3. 설명하다, 해명하다</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 설명하다, 해명하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>illuminate
+1. 사치스러운
+2. 설명하다, 해명하다
+3. 즉흥적인</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2, 설명하다, 해명하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>legitimate
+1. 설명하다, 해명하다
+2. 정당화하다, 합법화하다, 합법의
 3. 지지하다</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3, 지지하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>support
-1. 지지하다
-2. 영향을 미치다
-3. 무시하다, 일축하다</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1, 지지하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>endorse
-1. 무시하다, 일축하다
-2. 지지하다
-3. 즉흥적인</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 지지하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>stand up for
-1. 영향을 미치다
-2. 무시하다, 일축하다
-3. 지지하다</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 지지하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>prop
-1. 정당화하다, 합법화하다, 합법의
-2. 규제하다, 통제하다
-3. 지지하다</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3, 지지하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>elucidate
-1. 비공식의, 평상복의
-2. 무시하다, 일축하다
-3. 설명하다, 해명하다</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3, 설명하다, 해명하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>explain
-1. 설명하다, 해명하다
-2. 비공식의, 평상복의
-3. 무시하다, 일축하다</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 설명하다, 해명하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>interpret
-1. 설명하다, 해명하다
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2, 정당화하다, 합법화하다, 합법의</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>legitimize
+1. 연습하다, 연습시키다
 2. 규제하다, 통제하다
 3. 정당화하다, 합법화하다, 합법의</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1, 설명하다, 해명하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>demonstrate
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3, 정당화하다, 합법화하다, 합법의</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>justify
 1. 비공식의, 평상복의
-2. 무시하다, 일축하다
-3. 설명하다, 해명하다</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3, 설명하다, 해명하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>expound
+2. 정당화하다, 합법화하다, 합법의
+3. 연습하다, 연습시키다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2, 정당화하다, 합법화하다, 합법의</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sanctify
+1. 즉흥적인
+2. 정당화하다, 합법화하다, 합법의
+3. 비공식의, 평상복의</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 정당화하다, 합법화하다, 합법의</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>legalize
+1. 무시하다, 일축하다
+2. 정당화하다, 합법화하다, 합법의
+3. 규제하다, 통제하다</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, 정당화하다, 합법화하다, 합법의</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>statutory
 1. 지지하다
 2. 즉흥적인
-3. 설명하다, 해명하다</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3, 설명하다, 해명하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>illuminate
-1. 즉흥적인
-2. 설명하다, 해명하다
-3. 무시하다, 일축하다</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2, 설명하다, 해명하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>legitimate
-1. 즉흥적인
-2. 비공식의, 평상복의
 3. 정당화하다, 합법화하다, 합법의</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>3, 정당화하다, 합법화하다, 합법의</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>legitimize
-1. 정당화하다, 합법화하다, 합법의
-2. 무시하다, 일축하다
-3. 규제하다, 통제하다</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1, 정당화하다, 합법화하다, 합법의</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>justify
-1. 연습하다, 연습시키다
-2. 사치스러운
-3. 정당화하다, 합법화하다, 합법의</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3, 정당화하다, 합법화하다, 합법의</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>sanctify
-1. 정당화하다, 합법화하다, 합법의
-2. 연습하다, 연습시키다
-3. 비공식의, 평상복의</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1, 정당화하다, 합법화하다, 합법의</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>legalize
-1. 무시하다, 일축하다
-2. 설명하다, 해명하다
-3. 정당화하다, 합법화하다, 합법의</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3, 정당화하다, 합법화하다, 합법의</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>statutory
-1. 정당화하다, 합법화하다, 합법의
-2. 규제하다, 통제하다
-3. 무시하다, 일축하다</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1, 정당화하다, 합법화하다, 합법의</t>
         </is>
       </c>
     </row>
@@ -1139,8 +1138,8 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>licit
-1. 설명하다, 해명하다
-2. 영향을 미치다
+1. 사치스러운
+2. 규제하다, 통제하다
 3. 정당화하다, 합법화하다, 합법의</t>
         </is>
       </c>
